--- a/3DQ5_MILESTONE_1_R7.xlsx
+++ b/3DQ5_MILESTONE_1_R7.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sstje\Desktop\3DQ5_PROJECT\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1336CA-5419-421E-BAE6-9ECFE57F5B04}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4416" xr2:uid="{49D2BE5B-497D-4CC6-A740-E2C47152FC5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="164">
   <si>
     <t>State</t>
   </si>
@@ -422,12 +416,6 @@
     <t>ARGB2-1</t>
   </si>
   <si>
-    <t>ARGB2-2</t>
-  </si>
-  <si>
-    <t>R5G5</t>
-  </si>
-  <si>
     <t>RUN_0</t>
   </si>
   <si>
@@ -459,12 +447,81 @@
   </si>
   <si>
     <t>U4/5</t>
+  </si>
+  <si>
+    <t>ARGBn-1</t>
+  </si>
+  <si>
+    <t>ARGBn-2</t>
+  </si>
+  <si>
+    <t>Yn</t>
+  </si>
+  <si>
+    <t>DUn</t>
+  </si>
+  <si>
+    <t>DU(n-1)</t>
+  </si>
+  <si>
+    <t>DU(n-2)</t>
+  </si>
+  <si>
+    <t>DU(n-3)</t>
+  </si>
+  <si>
+    <t>DU(n-4)</t>
+  </si>
+  <si>
+    <t>DU(n-5)</t>
+  </si>
+  <si>
+    <t>DVn</t>
+  </si>
+  <si>
+    <t>DV(n-1)</t>
+  </si>
+  <si>
+    <t>DV(n-2)</t>
+  </si>
+  <si>
+    <t>DV(n-3)</t>
+  </si>
+  <si>
+    <t>DV(n-4)</t>
+  </si>
+  <si>
+    <t>DV(n-5)</t>
+  </si>
+  <si>
+    <t>DV'n</t>
+  </si>
+  <si>
+    <t>D(n-1)</t>
+  </si>
+  <si>
+    <t>D(n)</t>
+  </si>
+  <si>
+    <t>RGB(n-1)</t>
+  </si>
+  <si>
+    <t>RGB(n)</t>
+  </si>
+  <si>
+    <t>AU7/8</t>
+  </si>
+  <si>
+    <t>GnBn</t>
+  </si>
+  <si>
+    <t>B(n-1)Rn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -720,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -841,6 +898,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,7 +954,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39615C8D-5386-401B-AAEE-86EAA7418A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39615C8D-5386-401B-AAEE-86EAA7418A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +1023,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82025855-4A2A-4B23-9B1B-5B972497EB91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82025855-4A2A-4B23-9B1B-5B972497EB91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,7 +1088,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD07224-6C85-4AFC-A80F-3069ACC2E5C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CD07224-6C85-4AFC-A80F-3069ACC2E5C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1153,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736BEF64-A133-4C2D-AD9B-7099E14EAD48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{736BEF64-A133-4C2D-AD9B-7099E14EAD48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1223,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA8B6B5-52C8-402A-BC8E-ED48E579F3FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6EA8B6B5-52C8-402A-BC8E-ED48E579F3FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,82 +1579,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB28DC6E-86E5-4ACB-9B0E-711754285C2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.9453125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="8.83984375" style="3"/>
-    <col min="9" max="9" width="8.83984375" style="10"/>
-    <col min="10" max="10" width="8.83984375" style="84" customWidth="1"/>
-    <col min="11" max="11" width="8.83984375" style="3"/>
-    <col min="12" max="12" width="8.83984375" style="10"/>
-    <col min="13" max="13" width="12.05078125" style="84" customWidth="1"/>
-    <col min="14" max="14" width="12.1015625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="10.3671875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="8.83984375" style="101"/>
-    <col min="17" max="17" width="8.83984375" style="3"/>
-    <col min="18" max="18" width="11.41796875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="8.83984375" style="84"/>
-    <col min="20" max="20" width="8.83984375" style="3"/>
-    <col min="21" max="21" width="8.83984375" style="10"/>
-    <col min="22" max="22" width="8.83984375" style="101" customWidth="1"/>
-    <col min="23" max="23" width="8.83984375" style="3"/>
-    <col min="24" max="24" width="8.83984375" style="10" customWidth="1"/>
-    <col min="25" max="25" width="8.83984375" style="84"/>
-    <col min="26" max="26" width="8.83984375" style="3"/>
-    <col min="27" max="27" width="8.83984375" style="10"/>
-    <col min="28" max="28" width="8.83984375" style="101"/>
-    <col min="29" max="29" width="8.83984375" style="3"/>
-    <col min="30" max="30" width="8.83984375" style="10"/>
-    <col min="31" max="31" width="8.83984375" style="84"/>
-    <col min="32" max="33" width="8.83984375" style="10"/>
-    <col min="34" max="34" width="8.83984375" style="101" customWidth="1"/>
-    <col min="35" max="35" width="8.83984375" style="19" customWidth="1"/>
-    <col min="36" max="36" width="8.83984375" style="26" customWidth="1"/>
-    <col min="37" max="37" width="8.83984375" style="84" customWidth="1"/>
-    <col min="38" max="38" width="8.83984375" style="50"/>
-    <col min="39" max="39" width="10.41796875" style="3" customWidth="1"/>
-    <col min="40" max="41" width="8.83984375" style="3"/>
-    <col min="42" max="42" width="11.47265625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="8.83984375" style="3"/>
-    <col min="44" max="44" width="8.83984375" style="10"/>
-    <col min="45" max="45" width="12.41796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="2" max="8" width="8.85546875" style="3"/>
+    <col min="9" max="9" width="8.85546875" style="10"/>
+    <col min="10" max="10" width="8.85546875" style="84" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3"/>
+    <col min="12" max="12" width="8.85546875" style="10"/>
+    <col min="13" max="13" width="12" style="84" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="101"/>
+    <col min="17" max="17" width="8.85546875" style="3"/>
+    <col min="18" max="18" width="11.42578125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="84"/>
+    <col min="20" max="20" width="8.85546875" style="3"/>
+    <col min="21" max="21" width="8.85546875" style="10"/>
+    <col min="22" max="22" width="8.85546875" style="101" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="3"/>
+    <col min="24" max="24" width="8.85546875" style="10" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="84"/>
+    <col min="26" max="26" width="8.85546875" style="3"/>
+    <col min="27" max="27" width="8.85546875" style="10"/>
+    <col min="28" max="28" width="8.85546875" style="101"/>
+    <col min="29" max="29" width="8.85546875" style="3"/>
+    <col min="30" max="30" width="8.85546875" style="10"/>
+    <col min="31" max="31" width="8.85546875" style="84"/>
+    <col min="32" max="33" width="8.85546875" style="10"/>
+    <col min="34" max="34" width="8.85546875" style="101" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" style="19" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" style="26" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" style="84" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" style="50"/>
+    <col min="39" max="39" width="10.42578125" style="3" customWidth="1"/>
+    <col min="40" max="41" width="8.85546875" style="3"/>
+    <col min="42" max="42" width="11.42578125" style="3" customWidth="1"/>
+    <col min="43" max="43" width="8.85546875" style="3"/>
+    <col min="44" max="44" width="8.85546875" style="10"/>
+    <col min="45" max="45" width="12.42578125" style="10" customWidth="1"/>
     <col min="46" max="46" width="11" style="3" customWidth="1"/>
-    <col min="47" max="48" width="8.83984375" style="3"/>
-    <col min="49" max="49" width="13.5234375" style="3" customWidth="1"/>
-    <col min="50" max="50" width="8.83984375" style="3"/>
-    <col min="51" max="51" width="8.83984375" style="10"/>
-    <col min="52" max="52" width="14.3671875" style="10" customWidth="1"/>
+    <col min="47" max="48" width="8.85546875" style="3"/>
+    <col min="49" max="49" width="13.5703125" style="3" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" style="3"/>
+    <col min="51" max="51" width="8.85546875" style="10"/>
+    <col min="52" max="52" width="14.42578125" style="10" customWidth="1"/>
     <col min="53" max="53" width="11" style="3" customWidth="1"/>
-    <col min="54" max="55" width="8.83984375" style="3"/>
-    <col min="56" max="56" width="13.5234375" style="3" customWidth="1"/>
-    <col min="57" max="57" width="8.83984375" style="3"/>
-    <col min="58" max="58" width="8.83984375" style="10"/>
-    <col min="59" max="59" width="14.3671875" style="10" customWidth="1"/>
+    <col min="54" max="55" width="8.85546875" style="3"/>
+    <col min="56" max="56" width="13.5703125" style="3" customWidth="1"/>
+    <col min="57" max="57" width="8.85546875" style="3"/>
+    <col min="58" max="58" width="8.85546875" style="10"/>
+    <col min="59" max="59" width="14.42578125" style="10" customWidth="1"/>
     <col min="60" max="60" width="11" style="10" customWidth="1"/>
-    <col min="61" max="61" width="8.83984375" style="10"/>
-    <col min="62" max="62" width="8.83984375" style="3"/>
-    <col min="63" max="63" width="13.5234375" style="3" customWidth="1"/>
-    <col min="64" max="64" width="8.83984375" style="3"/>
-    <col min="65" max="65" width="8.83984375" style="10"/>
-    <col min="66" max="66" width="14.3671875" style="25" customWidth="1"/>
+    <col min="61" max="61" width="8.85546875" style="10"/>
+    <col min="62" max="62" width="8.85546875" style="3"/>
+    <col min="63" max="63" width="13.5703125" style="3" customWidth="1"/>
+    <col min="64" max="64" width="8.85546875" style="3"/>
+    <col min="65" max="65" width="8.85546875" style="10"/>
+    <col min="66" max="66" width="14.42578125" style="25" customWidth="1"/>
     <col min="67" max="67" width="11" style="16" customWidth="1"/>
-    <col min="68" max="69" width="8.83984375" style="3"/>
-    <col min="70" max="70" width="13.5234375" style="3" customWidth="1"/>
-    <col min="71" max="71" width="8.83984375" style="3"/>
-    <col min="72" max="72" width="8.83984375" style="10"/>
-    <col min="73" max="73" width="8.83984375" style="25"/>
-    <col min="74" max="74" width="8.83984375" style="16"/>
-    <col min="75" max="16384" width="8.83984375" style="3"/>
+    <col min="68" max="69" width="8.85546875" style="3"/>
+    <col min="70" max="70" width="13.5703125" style="3" customWidth="1"/>
+    <col min="71" max="71" width="8.85546875" style="3"/>
+    <col min="72" max="72" width="8.85546875" style="10"/>
+    <col min="73" max="73" width="8.85546875" style="25"/>
+    <col min="74" max="74" width="8.85546875" style="16"/>
+    <col min="75" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1616,76 +1692,76 @@
         <v>79</v>
       </c>
       <c r="M1" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="R1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="S1" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="V1" s="98" t="s">
+      <c r="X1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Y1" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AD1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="AE1" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AH1" s="98" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="AK1" s="81"/>
       <c r="AL1" s="50"/>
@@ -1704,7 +1780,7 @@
       <c r="BU1" s="70"/>
       <c r="BV1" s="13"/>
     </row>
-    <row r="2" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1826,7 @@
       <c r="BU2" s="71"/>
       <c r="BV2" s="14"/>
     </row>
-    <row r="3" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1872,7 @@
       <c r="BU3" s="72"/>
       <c r="BV3" s="15"/>
     </row>
-    <row r="4" spans="1:74" s="112" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:74" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I4" s="113"/>
       <c r="J4" s="114"/>
       <c r="L4" s="113"/>
@@ -1836,7 +1912,7 @@
       <c r="BU4" s="118"/>
       <c r="BV4" s="119"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1892,9 +1968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1984,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
@@ -2011,7 +2087,7 @@
       </c>
       <c r="L7" s="45"/>
       <c r="M7" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O7" s="45" t="s">
         <v>93</v>
@@ -2050,10 +2126,10 @@
         <v>124</v>
       </c>
       <c r="AD7" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE7" s="85" t="s">
         <v>129</v>
-      </c>
-      <c r="AE7" s="85" t="s">
-        <v>130</v>
       </c>
       <c r="AF7" s="45"/>
       <c r="AG7" s="45"/>
@@ -2062,8 +2138,17 @@
       <c r="AJ7" s="65"/>
       <c r="AK7" s="85"/>
       <c r="AL7" s="50"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
+      <c r="AM7" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN7" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="132"/>
+      <c r="AS7" s="132"/>
       <c r="AY7" s="45"/>
       <c r="AZ7" s="45"/>
       <c r="BF7" s="45"/>
@@ -2077,7 +2162,7 @@
       <c r="BU7" s="62"/>
       <c r="BV7" s="46"/>
     </row>
-    <row r="9" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>14</v>
       </c>
@@ -2131,8 +2216,13 @@
       <c r="AJ9" s="65"/>
       <c r="AK9" s="85"/>
       <c r="AL9" s="50"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
+      <c r="AQ9" s="131"/>
+      <c r="AR9" s="132"/>
+      <c r="AS9" s="132"/>
       <c r="AY9" s="45"/>
       <c r="AZ9" s="45"/>
       <c r="BF9" s="45"/>
@@ -2146,14 +2236,14 @@
       <c r="BU9" s="62"/>
       <c r="BV9" s="46"/>
     </row>
-    <row r="10" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>96</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="85"/>
       <c r="K10" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L10" s="44" t="s">
         <v>100</v>
@@ -2166,10 +2256,10 @@
       <c r="S10" s="96"/>
       <c r="U10" s="45"/>
       <c r="V10" s="102" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W10" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X10" s="45" t="s">
         <v>60</v>
@@ -2186,8 +2276,13 @@
       <c r="AJ10" s="65"/>
       <c r="AK10" s="85"/>
       <c r="AL10" s="50"/>
-      <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
+      <c r="AM10" s="131"/>
+      <c r="AN10" s="131"/>
+      <c r="AO10" s="131"/>
+      <c r="AP10" s="131"/>
+      <c r="AQ10" s="131"/>
+      <c r="AR10" s="132"/>
+      <c r="AS10" s="132"/>
       <c r="AY10" s="45"/>
       <c r="AZ10" s="45"/>
       <c r="BF10" s="45"/>
@@ -2201,7 +2296,7 @@
       <c r="BU10" s="62"/>
       <c r="BV10" s="46"/>
     </row>
-    <row r="11" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>97</v>
       </c>
@@ -2210,7 +2305,7 @@
       <c r="L11" s="44"/>
       <c r="M11" s="85"/>
       <c r="N11" s="45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O11" s="45" t="s">
         <v>101</v>
@@ -2237,8 +2332,13 @@
       <c r="AJ11" s="65"/>
       <c r="AK11" s="85"/>
       <c r="AL11" s="50"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
+      <c r="AM11" s="131"/>
+      <c r="AN11" s="131"/>
+      <c r="AO11" s="131"/>
+      <c r="AP11" s="131"/>
+      <c r="AQ11" s="131"/>
+      <c r="AR11" s="132"/>
+      <c r="AS11" s="132"/>
       <c r="AY11" s="45"/>
       <c r="AZ11" s="45"/>
       <c r="BF11" s="45"/>
@@ -2252,7 +2352,7 @@
       <c r="BU11" s="62"/>
       <c r="BV11" s="46"/>
     </row>
-    <row r="12" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>98</v>
       </c>
@@ -2288,8 +2388,15 @@
       <c r="AJ12" s="65"/>
       <c r="AK12" s="85"/>
       <c r="AL12" s="50"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
+      <c r="AM12" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN12" s="131"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="131"/>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="132"/>
+      <c r="AS12" s="132"/>
       <c r="AY12" s="45"/>
       <c r="AZ12" s="45"/>
       <c r="BF12" s="45"/>
@@ -2303,10 +2410,17 @@
       <c r="BU12" s="62"/>
       <c r="BV12" s="46"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="L13" s="24"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="120"/>
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="120"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
     </row>
-    <row r="14" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>65</v>
       </c>
@@ -2339,11 +2453,9 @@
       <c r="AC14" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="AD14" s="45" t="s">
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="85" t="s">
         <v>128</v>
-      </c>
-      <c r="AE14" s="85" t="s">
-        <v>131</v>
       </c>
       <c r="AF14" s="45"/>
       <c r="AG14" s="45"/>
@@ -2352,8 +2464,17 @@
       <c r="AJ14" s="65"/>
       <c r="AK14" s="85"/>
       <c r="AL14" s="50"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
+      <c r="AM14" s="131" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN14" s="131" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO14" s="131"/>
+      <c r="AP14" s="131"/>
+      <c r="AQ14" s="131"/>
+      <c r="AR14" s="132"/>
+      <c r="AS14" s="132"/>
       <c r="AY14" s="45"/>
       <c r="AZ14" s="45"/>
       <c r="BF14" s="45"/>
@@ -2367,7 +2488,7 @@
       <c r="BU14" s="62"/>
       <c r="BV14" s="46"/>
     </row>
-    <row r="15" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>66</v>
       </c>
@@ -2401,8 +2522,13 @@
       <c r="AJ15" s="65"/>
       <c r="AK15" s="85"/>
       <c r="AL15" s="50"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
+      <c r="AM15" s="131"/>
+      <c r="AN15" s="131"/>
+      <c r="AO15" s="131"/>
+      <c r="AP15" s="131"/>
+      <c r="AQ15" s="131"/>
+      <c r="AR15" s="132"/>
+      <c r="AS15" s="132"/>
       <c r="AY15" s="45"/>
       <c r="AZ15" s="45"/>
       <c r="BF15" s="45"/>
@@ -2416,10 +2542,17 @@
       <c r="BU15" s="62"/>
       <c r="BV15" s="46"/>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="L17" s="24"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
     </row>
-    <row r="18" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -2447,8 +2580,13 @@
       <c r="AJ18" s="32"/>
       <c r="AK18" s="86"/>
       <c r="AL18" s="50"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
+      <c r="AM18" s="122"/>
+      <c r="AN18" s="122"/>
+      <c r="AO18" s="122"/>
+      <c r="AP18" s="122"/>
+      <c r="AQ18" s="122"/>
+      <c r="AR18" s="123"/>
+      <c r="AS18" s="123"/>
       <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
       <c r="BF18" s="11"/>
@@ -2462,7 +2600,7 @@
       <c r="BU18" s="27"/>
       <c r="BV18" s="17"/>
     </row>
-    <row r="19" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>5</v>
       </c>
@@ -2512,8 +2650,15 @@
       <c r="AJ19" s="66"/>
       <c r="AK19" s="87"/>
       <c r="AL19" s="50"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
+      <c r="AM19" s="125"/>
+      <c r="AN19" s="125"/>
+      <c r="AO19" s="125"/>
+      <c r="AP19" s="125"/>
+      <c r="AQ19" s="125"/>
+      <c r="AR19" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS19" s="126"/>
       <c r="AY19" s="21"/>
       <c r="AZ19" s="21"/>
       <c r="BF19" s="21"/>
@@ -2527,7 +2672,7 @@
       <c r="BU19" s="28"/>
       <c r="BV19" s="22"/>
     </row>
-    <row r="20" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -2576,8 +2721,15 @@
       <c r="AJ20" s="66"/>
       <c r="AK20" s="87"/>
       <c r="AL20" s="50"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="21"/>
+      <c r="AM20" s="125"/>
+      <c r="AN20" s="125"/>
+      <c r="AO20" s="125"/>
+      <c r="AP20" s="125"/>
+      <c r="AQ20" s="125"/>
+      <c r="AR20" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS20" s="126"/>
       <c r="AY20" s="21"/>
       <c r="AZ20" s="21"/>
       <c r="BF20" s="21"/>
@@ -2591,7 +2743,7 @@
       <c r="BU20" s="28"/>
       <c r="BV20" s="22"/>
     </row>
-    <row r="21" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
@@ -2640,8 +2792,15 @@
       <c r="AJ21" s="66"/>
       <c r="AK21" s="87"/>
       <c r="AL21" s="50"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="21"/>
+      <c r="AM21" s="125"/>
+      <c r="AN21" s="125"/>
+      <c r="AO21" s="125"/>
+      <c r="AP21" s="125"/>
+      <c r="AQ21" s="125"/>
+      <c r="AR21" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS21" s="126"/>
       <c r="AY21" s="21"/>
       <c r="AZ21" s="21"/>
       <c r="BF21" s="21"/>
@@ -2655,7 +2814,7 @@
       <c r="BU21" s="28"/>
       <c r="BV21" s="22"/>
     </row>
-    <row r="22" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2863,15 @@
       <c r="AJ22" s="66"/>
       <c r="AK22" s="87"/>
       <c r="AL22" s="50"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
+      <c r="AM22" s="125"/>
+      <c r="AN22" s="125"/>
+      <c r="AO22" s="125"/>
+      <c r="AP22" s="125"/>
+      <c r="AQ22" s="125"/>
+      <c r="AR22" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS22" s="126"/>
       <c r="AY22" s="21"/>
       <c r="AZ22" s="21"/>
       <c r="BF22" s="21"/>
@@ -2719,7 +2885,7 @@
       <c r="BU22" s="28"/>
       <c r="BV22" s="22"/>
     </row>
-    <row r="23" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>9</v>
       </c>
@@ -2762,8 +2928,15 @@
       <c r="AJ23" s="66"/>
       <c r="AK23" s="87"/>
       <c r="AL23" s="50"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
+      <c r="AM23" s="125"/>
+      <c r="AN23" s="125"/>
+      <c r="AO23" s="125"/>
+      <c r="AP23" s="125"/>
+      <c r="AQ23" s="125"/>
+      <c r="AR23" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS23" s="126"/>
       <c r="AY23" s="21"/>
       <c r="AZ23" s="21"/>
       <c r="BF23" s="21"/>
@@ -2777,7 +2950,7 @@
       <c r="BU23" s="28"/>
       <c r="BV23" s="22"/>
     </row>
-    <row r="24" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>10</v>
       </c>
@@ -2820,8 +2993,15 @@
       <c r="AJ24" s="66"/>
       <c r="AK24" s="87"/>
       <c r="AL24" s="50"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
+      <c r="AM24" s="125"/>
+      <c r="AN24" s="125"/>
+      <c r="AO24" s="125"/>
+      <c r="AP24" s="125"/>
+      <c r="AQ24" s="125"/>
+      <c r="AR24" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS24" s="126"/>
       <c r="AY24" s="21"/>
       <c r="AZ24" s="21"/>
       <c r="BF24" s="21"/>
@@ -2835,7 +3015,7 @@
       <c r="BU24" s="28"/>
       <c r="BV24" s="22"/>
     </row>
-    <row r="25" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I25" s="12"/>
       <c r="J25" s="88"/>
       <c r="L25" s="12"/>
@@ -2860,8 +3040,13 @@
       <c r="AJ25" s="33"/>
       <c r="AK25" s="88"/>
       <c r="AL25" s="50"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="12"/>
+      <c r="AM25" s="121"/>
+      <c r="AN25" s="121"/>
+      <c r="AO25" s="121"/>
+      <c r="AP25" s="121"/>
+      <c r="AQ25" s="121"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="124"/>
       <c r="AY25" s="12"/>
       <c r="AZ25" s="12"/>
       <c r="BF25" s="12"/>
@@ -2875,7 +3060,7 @@
       <c r="BU25" s="29"/>
       <c r="BV25" s="18"/>
     </row>
-    <row r="28" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -2903,8 +3088,13 @@
       <c r="AJ28" s="32"/>
       <c r="AK28" s="86"/>
       <c r="AL28" s="50"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="11"/>
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="122"/>
+      <c r="AP28" s="122"/>
+      <c r="AQ28" s="122"/>
+      <c r="AR28" s="123"/>
+      <c r="AS28" s="123"/>
       <c r="AY28" s="11"/>
       <c r="AZ28" s="11"/>
       <c r="BF28" s="11"/>
@@ -2918,7 +3108,7 @@
       <c r="BU28" s="27"/>
       <c r="BV28" s="17"/>
     </row>
-    <row r="29" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>5</v>
       </c>
@@ -2966,8 +3156,15 @@
       <c r="AJ29" s="66"/>
       <c r="AK29" s="87"/>
       <c r="AL29" s="50"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
+      <c r="AM29" s="125"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP29" s="125"/>
+      <c r="AQ29" s="125"/>
+      <c r="AR29" s="126"/>
+      <c r="AS29" s="126"/>
       <c r="AY29" s="21"/>
       <c r="AZ29" s="21"/>
       <c r="BF29" s="21"/>
@@ -2981,7 +3178,7 @@
       <c r="BU29" s="28"/>
       <c r="BV29" s="22"/>
     </row>
-    <row r="30" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>6</v>
       </c>
@@ -3029,8 +3226,15 @@
       <c r="AJ30" s="66"/>
       <c r="AK30" s="87"/>
       <c r="AL30" s="50"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
+      <c r="AM30" s="125"/>
+      <c r="AN30" s="125"/>
+      <c r="AO30" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP30" s="125"/>
+      <c r="AQ30" s="125"/>
+      <c r="AR30" s="126"/>
+      <c r="AS30" s="126"/>
       <c r="AY30" s="21"/>
       <c r="AZ30" s="21"/>
       <c r="BF30" s="21"/>
@@ -3044,7 +3248,7 @@
       <c r="BU30" s="28"/>
       <c r="BV30" s="22"/>
     </row>
-    <row r="31" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -3092,8 +3296,15 @@
       <c r="AJ31" s="66"/>
       <c r="AK31" s="87"/>
       <c r="AL31" s="50"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
+      <c r="AM31" s="125"/>
+      <c r="AN31" s="125"/>
+      <c r="AO31" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP31" s="125"/>
+      <c r="AQ31" s="125"/>
+      <c r="AR31" s="126"/>
+      <c r="AS31" s="126"/>
       <c r="AY31" s="21"/>
       <c r="AZ31" s="21"/>
       <c r="BF31" s="21"/>
@@ -3107,7 +3318,7 @@
       <c r="BU31" s="28"/>
       <c r="BV31" s="22"/>
     </row>
-    <row r="32" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>8</v>
       </c>
@@ -3155,8 +3366,15 @@
       <c r="AJ32" s="66"/>
       <c r="AK32" s="87"/>
       <c r="AL32" s="50"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
+      <c r="AM32" s="125"/>
+      <c r="AN32" s="125"/>
+      <c r="AO32" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP32" s="125"/>
+      <c r="AQ32" s="125"/>
+      <c r="AR32" s="126"/>
+      <c r="AS32" s="126"/>
       <c r="AY32" s="21"/>
       <c r="AZ32" s="21"/>
       <c r="BF32" s="21"/>
@@ -3170,7 +3388,7 @@
       <c r="BU32" s="28"/>
       <c r="BV32" s="22"/>
     </row>
-    <row r="33" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>9</v>
       </c>
@@ -3212,8 +3430,15 @@
       <c r="AJ33" s="66"/>
       <c r="AK33" s="87"/>
       <c r="AL33" s="50"/>
-      <c r="AR33" s="21"/>
-      <c r="AS33" s="21"/>
+      <c r="AM33" s="125"/>
+      <c r="AN33" s="125"/>
+      <c r="AO33" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP33" s="125"/>
+      <c r="AQ33" s="125"/>
+      <c r="AR33" s="126"/>
+      <c r="AS33" s="126"/>
       <c r="AY33" s="21"/>
       <c r="AZ33" s="21"/>
       <c r="BF33" s="21"/>
@@ -3227,7 +3452,7 @@
       <c r="BU33" s="28"/>
       <c r="BV33" s="22"/>
     </row>
-    <row r="34" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>10</v>
       </c>
@@ -3269,8 +3494,15 @@
       <c r="AJ34" s="66"/>
       <c r="AK34" s="87"/>
       <c r="AL34" s="50"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
+      <c r="AM34" s="125"/>
+      <c r="AN34" s="125"/>
+      <c r="AO34" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP34" s="125"/>
+      <c r="AQ34" s="125"/>
+      <c r="AR34" s="126"/>
+      <c r="AS34" s="126"/>
       <c r="AY34" s="21"/>
       <c r="AZ34" s="21"/>
       <c r="BF34" s="21"/>
@@ -3284,7 +3516,7 @@
       <c r="BU34" s="28"/>
       <c r="BV34" s="22"/>
     </row>
-    <row r="35" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I35" s="12"/>
       <c r="J35" s="88"/>
       <c r="L35" s="12"/>
@@ -3309,8 +3541,13 @@
       <c r="AJ35" s="33"/>
       <c r="AK35" s="88"/>
       <c r="AL35" s="50"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
+      <c r="AM35" s="121"/>
+      <c r="AN35" s="121"/>
+      <c r="AO35" s="121"/>
+      <c r="AP35" s="121"/>
+      <c r="AQ35" s="121"/>
+      <c r="AR35" s="124"/>
+      <c r="AS35" s="124"/>
       <c r="AY35" s="12"/>
       <c r="AZ35" s="12"/>
       <c r="BF35" s="12"/>
@@ -3324,7 +3561,7 @@
       <c r="BU35" s="29"/>
       <c r="BV35" s="18"/>
     </row>
-    <row r="36" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I36" s="40"/>
       <c r="J36" s="89"/>
       <c r="L36" s="40"/>
@@ -3349,8 +3586,13 @@
       <c r="AJ36" s="55"/>
       <c r="AK36" s="89"/>
       <c r="AL36" s="51"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40"/>
+      <c r="AM36" s="129"/>
+      <c r="AN36" s="129"/>
+      <c r="AO36" s="129"/>
+      <c r="AP36" s="129"/>
+      <c r="AQ36" s="129"/>
+      <c r="AR36" s="130"/>
+      <c r="AS36" s="130"/>
       <c r="AY36" s="40"/>
       <c r="AZ36" s="40"/>
       <c r="BF36" s="40"/>
@@ -3364,7 +3606,7 @@
       <c r="BU36" s="61"/>
       <c r="BV36" s="41"/>
     </row>
-    <row r="37" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I37" s="40"/>
       <c r="J37" s="89"/>
       <c r="L37" s="40"/>
@@ -3389,8 +3631,13 @@
       <c r="AJ37" s="55"/>
       <c r="AK37" s="89"/>
       <c r="AL37" s="51"/>
-      <c r="AR37" s="40"/>
-      <c r="AS37" s="40"/>
+      <c r="AM37" s="129"/>
+      <c r="AN37" s="129"/>
+      <c r="AO37" s="129"/>
+      <c r="AP37" s="129"/>
+      <c r="AQ37" s="129"/>
+      <c r="AR37" s="130"/>
+      <c r="AS37" s="130"/>
       <c r="AY37" s="40"/>
       <c r="AZ37" s="40"/>
       <c r="BF37" s="40"/>
@@ -3404,7 +3651,7 @@
       <c r="BU37" s="61"/>
       <c r="BV37" s="41"/>
     </row>
-    <row r="38" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>41</v>
       </c>
@@ -3477,8 +3724,13 @@
       <c r="AJ38" s="55"/>
       <c r="AK38" s="89"/>
       <c r="AL38" s="51"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40"/>
+      <c r="AM38" s="129"/>
+      <c r="AN38" s="129"/>
+      <c r="AO38" s="129"/>
+      <c r="AP38" s="129"/>
+      <c r="AQ38" s="129"/>
+      <c r="AR38" s="130"/>
+      <c r="AS38" s="130"/>
       <c r="AY38" s="40"/>
       <c r="AZ38" s="40"/>
       <c r="BF38" s="40"/>
@@ -3492,7 +3744,7 @@
       <c r="BU38" s="61"/>
       <c r="BV38" s="41"/>
     </row>
-    <row r="39" spans="1:74" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:74" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>40</v>
       </c>
@@ -3539,8 +3791,15 @@
       <c r="AJ39" s="67"/>
       <c r="AK39" s="90"/>
       <c r="AL39" s="51"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
+      <c r="AM39" s="133"/>
+      <c r="AN39" s="133"/>
+      <c r="AO39" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP39" s="133"/>
+      <c r="AQ39" s="133"/>
+      <c r="AR39" s="134"/>
+      <c r="AS39" s="134"/>
       <c r="AY39" s="48"/>
       <c r="AZ39" s="48"/>
       <c r="BF39" s="48"/>
@@ -3554,7 +3813,7 @@
       <c r="BU39" s="73"/>
       <c r="BV39" s="58"/>
     </row>
-    <row r="40" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>3</v>
       </c>
@@ -3643,8 +3902,25 @@
       <c r="AJ40" s="55"/>
       <c r="AK40" s="89"/>
       <c r="AL40" s="51"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
+      <c r="AM40" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN40" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO40" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP40" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ40" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR40" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS40" s="130"/>
       <c r="AY40" s="40"/>
       <c r="AZ40" s="40"/>
       <c r="BF40" s="40"/>
@@ -3658,7 +3934,7 @@
       <c r="BU40" s="61"/>
       <c r="BV40" s="41"/>
     </row>
-    <row r="42" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="76" t="s">
         <v>57</v>
       </c>
@@ -3694,8 +3970,13 @@
       <c r="AJ42" s="79"/>
       <c r="AK42" s="91"/>
       <c r="AL42" s="50"/>
-      <c r="AR42" s="77"/>
-      <c r="AS42" s="77"/>
+      <c r="AM42" s="137"/>
+      <c r="AN42" s="137"/>
+      <c r="AO42" s="137"/>
+      <c r="AP42" s="137"/>
+      <c r="AQ42" s="137"/>
+      <c r="AR42" s="138"/>
+      <c r="AS42" s="138"/>
       <c r="AY42" s="77"/>
       <c r="AZ42" s="77"/>
       <c r="BF42" s="77"/>
@@ -3709,7 +3990,7 @@
       <c r="BU42" s="80"/>
       <c r="BV42" s="78"/>
     </row>
-    <row r="43" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="76" t="s">
         <v>58</v>
       </c>
@@ -3745,8 +4026,15 @@
       <c r="AJ43" s="79"/>
       <c r="AK43" s="91"/>
       <c r="AL43" s="50"/>
-      <c r="AR43" s="77"/>
-      <c r="AS43" s="77"/>
+      <c r="AM43" s="137"/>
+      <c r="AN43" s="137"/>
+      <c r="AO43" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP43" s="137"/>
+      <c r="AQ43" s="137"/>
+      <c r="AR43" s="138"/>
+      <c r="AS43" s="138"/>
       <c r="AY43" s="77"/>
       <c r="AZ43" s="77"/>
       <c r="BF43" s="77"/>
@@ -3760,7 +4048,7 @@
       <c r="BU43" s="80"/>
       <c r="BV43" s="78"/>
     </row>
-    <row r="46" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>26</v>
       </c>
@@ -3801,8 +4089,17 @@
       <c r="AJ46" s="68"/>
       <c r="AK46" s="92"/>
       <c r="AL46" s="50"/>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52"/>
+      <c r="AM46" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN46" s="127"/>
+      <c r="AO46" s="127"/>
+      <c r="AP46" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ46" s="127"/>
+      <c r="AR46" s="135"/>
+      <c r="AS46" s="135"/>
       <c r="AY46" s="52"/>
       <c r="AZ46" s="52"/>
       <c r="BF46" s="52"/>
@@ -3816,7 +4113,7 @@
       <c r="BU46" s="74"/>
       <c r="BV46" s="59"/>
     </row>
-    <row r="47" spans="1:74" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:74" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>30</v>
       </c>
@@ -3855,8 +4152,17 @@
       <c r="AJ47" s="69"/>
       <c r="AK47" s="93"/>
       <c r="AL47" s="50"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
+      <c r="AM47" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN47" s="128"/>
+      <c r="AO47" s="128"/>
+      <c r="AP47" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ47" s="128"/>
+      <c r="AR47" s="136"/>
+      <c r="AS47" s="136"/>
       <c r="AY47" s="53"/>
       <c r="AZ47" s="53"/>
       <c r="BF47" s="53"/>
@@ -3870,7 +4176,7 @@
       <c r="BU47" s="75"/>
       <c r="BV47" s="60"/>
     </row>
-    <row r="48" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>43</v>
       </c>
@@ -3948,8 +4254,25 @@
       <c r="AJ48" s="55"/>
       <c r="AK48" s="89"/>
       <c r="AL48" s="51"/>
-      <c r="AR48" s="40"/>
-      <c r="AS48" s="40"/>
+      <c r="AM48" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN48" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO48" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP48" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ48" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR48" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS48" s="130"/>
       <c r="AY48" s="40"/>
       <c r="AZ48" s="40"/>
       <c r="BF48" s="40"/>
@@ -3963,7 +4286,7 @@
       <c r="BU48" s="61"/>
       <c r="BV48" s="41"/>
     </row>
-    <row r="50" spans="9:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="9:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I50" s="40"/>
       <c r="J50" s="89"/>
       <c r="L50" s="40"/>

--- a/3DQ5_MILESTONE_1_R7.xlsx
+++ b/3DQ5_MILESTONE_1_R7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sstje\Desktop\3DQ5_PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8530E252-434F-4CD4-A642-D2270E1D3165}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,7 +955,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39615C8D-5386-401B-AAEE-86EAA7418A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39615C8D-5386-401B-AAEE-86EAA7418A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1024,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82025855-4A2A-4B23-9B1B-5B972497EB91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82025855-4A2A-4B23-9B1B-5B972497EB91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1089,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CD07224-6C85-4AFC-A80F-3069ACC2E5C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD07224-6C85-4AFC-A80F-3069ACC2E5C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1154,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{736BEF64-A133-4C2D-AD9B-7099E14EAD48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736BEF64-A133-4C2D-AD9B-7099E14EAD48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,23 +1208,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>461010</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>474458</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>56254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>401782</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20782</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>121024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6EA8B6B5-52C8-402A-BC8E-ED48E579F3FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA8B6B5-52C8-402A-BC8E-ED48E579F3FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,8 +1232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12549101" y="447848"/>
-          <a:ext cx="5226281" cy="244879"/>
+          <a:off x="6906634" y="423807"/>
+          <a:ext cx="5252360" cy="248546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,82 +1580,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="8" width="8.85546875" style="3"/>
-    <col min="9" max="9" width="8.85546875" style="10"/>
-    <col min="10" max="10" width="8.85546875" style="84" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3"/>
-    <col min="12" max="12" width="8.85546875" style="10"/>
+    <col min="2" max="8" width="8.83984375" style="3"/>
+    <col min="9" max="9" width="8.83984375" style="10"/>
+    <col min="10" max="10" width="8.83984375" style="84" customWidth="1"/>
+    <col min="11" max="11" width="8.83984375" style="3"/>
+    <col min="12" max="12" width="8.83984375" style="10"/>
     <col min="13" max="13" width="12" style="84" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="101"/>
-    <col min="17" max="17" width="8.85546875" style="3"/>
-    <col min="18" max="18" width="11.42578125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="84"/>
-    <col min="20" max="20" width="8.85546875" style="3"/>
-    <col min="21" max="21" width="8.85546875" style="10"/>
-    <col min="22" max="22" width="8.85546875" style="101" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="3"/>
-    <col min="24" max="24" width="8.85546875" style="10" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="84"/>
-    <col min="26" max="26" width="8.85546875" style="3"/>
-    <col min="27" max="27" width="8.85546875" style="10"/>
-    <col min="28" max="28" width="8.85546875" style="101"/>
-    <col min="29" max="29" width="8.85546875" style="3"/>
-    <col min="30" max="30" width="8.85546875" style="10"/>
-    <col min="31" max="31" width="8.85546875" style="84"/>
-    <col min="32" max="33" width="8.85546875" style="10"/>
-    <col min="34" max="34" width="8.85546875" style="101" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" style="19" customWidth="1"/>
-    <col min="36" max="36" width="8.85546875" style="26" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" style="84" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" style="50"/>
-    <col min="39" max="39" width="10.42578125" style="3" customWidth="1"/>
-    <col min="40" max="41" width="8.85546875" style="3"/>
-    <col min="42" max="42" width="11.42578125" style="3" customWidth="1"/>
-    <col min="43" max="43" width="8.85546875" style="3"/>
-    <col min="44" max="44" width="8.85546875" style="10"/>
-    <col min="45" max="45" width="12.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.15625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10.41796875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.83984375" style="101"/>
+    <col min="17" max="17" width="8.83984375" style="3"/>
+    <col min="18" max="18" width="11.41796875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="8.83984375" style="84"/>
+    <col min="20" max="20" width="8.83984375" style="3"/>
+    <col min="21" max="21" width="8.83984375" style="10"/>
+    <col min="22" max="22" width="8.83984375" style="101" customWidth="1"/>
+    <col min="23" max="23" width="8.83984375" style="3"/>
+    <col min="24" max="24" width="8.83984375" style="10" customWidth="1"/>
+    <col min="25" max="25" width="8.83984375" style="84"/>
+    <col min="26" max="26" width="8.83984375" style="3"/>
+    <col min="27" max="27" width="8.83984375" style="10"/>
+    <col min="28" max="28" width="8.83984375" style="101"/>
+    <col min="29" max="29" width="8.83984375" style="3"/>
+    <col min="30" max="30" width="8.83984375" style="10"/>
+    <col min="31" max="31" width="8.83984375" style="84"/>
+    <col min="32" max="33" width="8.83984375" style="10"/>
+    <col min="34" max="34" width="8.83984375" style="101" customWidth="1"/>
+    <col min="35" max="35" width="8.83984375" style="19" customWidth="1"/>
+    <col min="36" max="36" width="8.83984375" style="26" customWidth="1"/>
+    <col min="37" max="37" width="8.83984375" style="84" customWidth="1"/>
+    <col min="38" max="38" width="8.83984375" style="50"/>
+    <col min="39" max="39" width="10.41796875" style="3" customWidth="1"/>
+    <col min="40" max="41" width="8.83984375" style="3"/>
+    <col min="42" max="42" width="11.41796875" style="3" customWidth="1"/>
+    <col min="43" max="43" width="8.83984375" style="3"/>
+    <col min="44" max="44" width="8.83984375" style="10"/>
+    <col min="45" max="45" width="12.41796875" style="10" customWidth="1"/>
     <col min="46" max="46" width="11" style="3" customWidth="1"/>
-    <col min="47" max="48" width="8.85546875" style="3"/>
-    <col min="49" max="49" width="13.5703125" style="3" customWidth="1"/>
-    <col min="50" max="50" width="8.85546875" style="3"/>
-    <col min="51" max="51" width="8.85546875" style="10"/>
-    <col min="52" max="52" width="14.42578125" style="10" customWidth="1"/>
+    <col min="47" max="48" width="8.83984375" style="3"/>
+    <col min="49" max="49" width="13.578125" style="3" customWidth="1"/>
+    <col min="50" max="50" width="8.83984375" style="3"/>
+    <col min="51" max="51" width="8.83984375" style="10"/>
+    <col min="52" max="52" width="14.41796875" style="10" customWidth="1"/>
     <col min="53" max="53" width="11" style="3" customWidth="1"/>
-    <col min="54" max="55" width="8.85546875" style="3"/>
-    <col min="56" max="56" width="13.5703125" style="3" customWidth="1"/>
-    <col min="57" max="57" width="8.85546875" style="3"/>
-    <col min="58" max="58" width="8.85546875" style="10"/>
-    <col min="59" max="59" width="14.42578125" style="10" customWidth="1"/>
+    <col min="54" max="55" width="8.83984375" style="3"/>
+    <col min="56" max="56" width="13.578125" style="3" customWidth="1"/>
+    <col min="57" max="57" width="8.83984375" style="3"/>
+    <col min="58" max="58" width="8.83984375" style="10"/>
+    <col min="59" max="59" width="14.41796875" style="10" customWidth="1"/>
     <col min="60" max="60" width="11" style="10" customWidth="1"/>
-    <col min="61" max="61" width="8.85546875" style="10"/>
-    <col min="62" max="62" width="8.85546875" style="3"/>
-    <col min="63" max="63" width="13.5703125" style="3" customWidth="1"/>
-    <col min="64" max="64" width="8.85546875" style="3"/>
-    <col min="65" max="65" width="8.85546875" style="10"/>
-    <col min="66" max="66" width="14.42578125" style="25" customWidth="1"/>
+    <col min="61" max="61" width="8.83984375" style="10"/>
+    <col min="62" max="62" width="8.83984375" style="3"/>
+    <col min="63" max="63" width="13.578125" style="3" customWidth="1"/>
+    <col min="64" max="64" width="8.83984375" style="3"/>
+    <col min="65" max="65" width="8.83984375" style="10"/>
+    <col min="66" max="66" width="14.41796875" style="25" customWidth="1"/>
     <col min="67" max="67" width="11" style="16" customWidth="1"/>
-    <col min="68" max="69" width="8.85546875" style="3"/>
-    <col min="70" max="70" width="13.5703125" style="3" customWidth="1"/>
-    <col min="71" max="71" width="8.85546875" style="3"/>
-    <col min="72" max="72" width="8.85546875" style="10"/>
-    <col min="73" max="73" width="8.85546875" style="25"/>
-    <col min="74" max="74" width="8.85546875" style="16"/>
-    <col min="75" max="16384" width="8.85546875" style="3"/>
+    <col min="68" max="69" width="8.83984375" style="3"/>
+    <col min="70" max="70" width="13.578125" style="3" customWidth="1"/>
+    <col min="71" max="71" width="8.83984375" style="3"/>
+    <col min="72" max="72" width="8.83984375" style="10"/>
+    <col min="73" max="73" width="8.83984375" style="25"/>
+    <col min="74" max="74" width="8.83984375" style="16"/>
+    <col min="75" max="16384" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1781,7 @@
       <c r="BU1" s="70"/>
       <c r="BV1" s="13"/>
     </row>
-    <row r="2" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1827,7 @@
       <c r="BU2" s="71"/>
       <c r="BV2" s="14"/>
     </row>
-    <row r="3" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1872,7 +1873,7 @@
       <c r="BU3" s="72"/>
       <c r="BV3" s="15"/>
     </row>
-    <row r="4" spans="1:74" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" s="112" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="113"/>
       <c r="J4" s="114"/>
       <c r="L4" s="113"/>
@@ -1912,7 +1913,7 @@
       <c r="BU4" s="118"/>
       <c r="BV4" s="119"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>139</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
@@ -2162,7 +2163,7 @@
       <c r="BU7" s="62"/>
       <c r="BV7" s="46"/>
     </row>
-    <row r="9" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>14</v>
       </c>
@@ -2236,7 +2237,7 @@
       <c r="BU9" s="62"/>
       <c r="BV9" s="46"/>
     </row>
-    <row r="10" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>96</v>
       </c>
@@ -2296,7 +2297,7 @@
       <c r="BU10" s="62"/>
       <c r="BV10" s="46"/>
     </row>
-    <row r="11" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>97</v>
       </c>
@@ -2352,7 +2353,7 @@
       <c r="BU11" s="62"/>
       <c r="BV11" s="46"/>
     </row>
-    <row r="12" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>98</v>
       </c>
@@ -2410,7 +2411,7 @@
       <c r="BU12" s="62"/>
       <c r="BV12" s="46"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="L13" s="24"/>
       <c r="AM13" s="120"/>
       <c r="AN13" s="120"/>
@@ -2420,7 +2421,7 @@
       <c r="AR13" s="120"/>
       <c r="AS13" s="120"/>
     </row>
-    <row r="14" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>65</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="BU14" s="62"/>
       <c r="BV14" s="46"/>
     </row>
-    <row r="15" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="43" t="s">
         <v>66</v>
       </c>
@@ -2542,7 +2543,7 @@
       <c r="BU15" s="62"/>
       <c r="BV15" s="46"/>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="L17" s="24"/>
       <c r="AM17" s="120"/>
       <c r="AN17" s="120"/>
@@ -2552,7 +2553,7 @@
       <c r="AR17" s="120"/>
       <c r="AS17" s="120"/>
     </row>
-    <row r="18" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -2600,7 +2601,7 @@
       <c r="BU18" s="27"/>
       <c r="BV18" s="17"/>
     </row>
-    <row r="19" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2673,7 @@
       <c r="BU19" s="28"/>
       <c r="BV19" s="22"/>
     </row>
-    <row r="20" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2744,7 @@
       <c r="BU20" s="28"/>
       <c r="BV20" s="22"/>
     </row>
-    <row r="21" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2815,7 @@
       <c r="BU21" s="28"/>
       <c r="BV21" s="22"/>
     </row>
-    <row r="22" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20" t="s">
         <v>8</v>
       </c>
@@ -2885,7 +2886,7 @@
       <c r="BU22" s="28"/>
       <c r="BV22" s="22"/>
     </row>
-    <row r="23" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20" t="s">
         <v>9</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="BU23" s="28"/>
       <c r="BV23" s="22"/>
     </row>
-    <row r="24" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="20" t="s">
         <v>10</v>
       </c>
@@ -3015,7 +3016,7 @@
       <c r="BU24" s="28"/>
       <c r="BV24" s="22"/>
     </row>
-    <row r="25" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="12"/>
       <c r="J25" s="88"/>
       <c r="L25" s="12"/>
@@ -3060,7 +3061,7 @@
       <c r="BU25" s="29"/>
       <c r="BV25" s="18"/>
     </row>
-    <row r="28" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3109,7 @@
       <c r="BU28" s="27"/>
       <c r="BV28" s="17"/>
     </row>
-    <row r="29" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20" t="s">
         <v>5</v>
       </c>
@@ -3178,7 +3179,7 @@
       <c r="BU29" s="28"/>
       <c r="BV29" s="22"/>
     </row>
-    <row r="30" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20" t="s">
         <v>6</v>
       </c>
@@ -3248,7 +3249,7 @@
       <c r="BU30" s="28"/>
       <c r="BV30" s="22"/>
     </row>
-    <row r="31" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -3318,7 +3319,7 @@
       <c r="BU31" s="28"/>
       <c r="BV31" s="22"/>
     </row>
-    <row r="32" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20" t="s">
         <v>8</v>
       </c>
@@ -3388,7 +3389,7 @@
       <c r="BU32" s="28"/>
       <c r="BV32" s="22"/>
     </row>
-    <row r="33" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20" t="s">
         <v>9</v>
       </c>
@@ -3452,7 +3453,7 @@
       <c r="BU33" s="28"/>
       <c r="BV33" s="22"/>
     </row>
-    <row r="34" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +3517,7 @@
       <c r="BU34" s="28"/>
       <c r="BV34" s="22"/>
     </row>
-    <row r="35" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="12"/>
       <c r="J35" s="88"/>
       <c r="L35" s="12"/>
@@ -3561,7 +3562,7 @@
       <c r="BU35" s="29"/>
       <c r="BV35" s="18"/>
     </row>
-    <row r="36" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="40"/>
       <c r="J36" s="89"/>
       <c r="L36" s="40"/>
@@ -3606,7 +3607,7 @@
       <c r="BU36" s="61"/>
       <c r="BV36" s="41"/>
     </row>
-    <row r="37" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="40"/>
       <c r="J37" s="89"/>
       <c r="L37" s="40"/>
@@ -3651,7 +3652,7 @@
       <c r="BU37" s="61"/>
       <c r="BV37" s="41"/>
     </row>
-    <row r="38" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="39" t="s">
         <v>41</v>
       </c>
@@ -3744,7 +3745,7 @@
       <c r="BU38" s="61"/>
       <c r="BV38" s="41"/>
     </row>
-    <row r="39" spans="1:74" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:74" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="47" t="s">
         <v>40</v>
       </c>
@@ -3813,7 +3814,7 @@
       <c r="BU39" s="73"/>
       <c r="BV39" s="58"/>
     </row>
-    <row r="40" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="39" t="s">
         <v>3</v>
       </c>
@@ -3934,7 +3935,7 @@
       <c r="BU40" s="61"/>
       <c r="BV40" s="41"/>
     </row>
-    <row r="42" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="76" t="s">
         <v>57</v>
       </c>
@@ -3990,7 +3991,7 @@
       <c r="BU42" s="80"/>
       <c r="BV42" s="78"/>
     </row>
-    <row r="43" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:74" s="76" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="76" t="s">
         <v>58</v>
       </c>
@@ -4048,7 +4049,7 @@
       <c r="BU43" s="80"/>
       <c r="BV43" s="78"/>
     </row>
-    <row r="46" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="23" t="s">
         <v>26</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="BU46" s="74"/>
       <c r="BV46" s="59"/>
     </row>
-    <row r="47" spans="1:74" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:74" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="30" t="s">
         <v>30</v>
       </c>
@@ -4176,7 +4177,7 @@
       <c r="BU47" s="75"/>
       <c r="BV47" s="60"/>
     </row>
-    <row r="48" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="39" t="s">
         <v>43</v>
       </c>
@@ -4286,7 +4287,7 @@
       <c r="BU48" s="61"/>
       <c r="BV48" s="41"/>
     </row>
-    <row r="50" spans="9:74" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:74" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I50" s="40"/>
       <c r="J50" s="89"/>
       <c r="L50" s="40"/>
